--- a/info_list.xlsx
+++ b/info_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjswo\Desktop\github\ms_word_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjswo\Documents\ms_word_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF9755-5A24-4EAD-871F-E7F0C66478BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="12" windowWidth="13236" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="12" windowWidth="13236" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,13 +51,21 @@
   </si>
   <si>
     <t>데이터사이언스 융합학과2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤여훈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터사이언스 융합학과3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -421,6 +428,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>20197119783</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info_list.xlsx
+++ b/info_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjswo\Documents\ms_word_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjswo\PycharmProjects\ms_word_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,27 +38,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤여훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터사이언스 융합학과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤여훈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터사이언스 융합학과2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤여훈3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터사이언스 융합학과3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -408,35 +408,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2019111111</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2019711978</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>20197119782</v>
+        <v>2019111112</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>20197119783</v>
+        <v>2019111113</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
